--- a/EAGLE files/Capstone BOM Feedback.xlsx
+++ b/EAGLE files/Capstone BOM Feedback.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blackjack\Documents\Kit Buys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\EAGLE files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D201D51-AD2B-4189-B419-5964084672BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6D201D51-AD2B-4189-B419-5964084672BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{539BBB67-59C3-45A6-9A9B-BACCBA8F9AF2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCF87E2E-A8C5-4B94-922B-78F5E7CBE8C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCF87E2E-A8C5-4B94-922B-78F5E7CBE8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -847,14 +847,14 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
